--- a/.templates/Data/Configs/PerformerConfig.xlsx
+++ b/.templates/Data/Configs/PerformerConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eyash\Documents\UiPath\LazyFramework\.templates\Data\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08B9B57-BFEE-422D-ADE1-D911ED1E23BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBDAEE2-1EF6-4F7B-B392-A2D44F441BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="36780" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20120" yWindow="0" windowWidth="18280" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -208,6 +208,21 @@
   </si>
   <si>
     <t>.templates\Data\Exception Screenshots</t>
+  </si>
+  <si>
+    <t>LazyFramework.Tests</t>
+  </si>
+  <si>
+    <t>LazyFramework</t>
+  </si>
+  <si>
+    <t>Credentials_Email</t>
+  </si>
+  <si>
+    <t>SysEx_To</t>
+  </si>
+  <si>
+    <t>SysEx_CC</t>
   </si>
 </sst>
 </file>
@@ -528,7 +543,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,6 +579,9 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
@@ -572,6 +590,9 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -580,6 +601,9 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -587,6 +611,9 @@
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -673,7 +700,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,6 +726,12 @@
       <c r="A2" t="s">
         <v>33</v>
       </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
       <c r="D2" t="s">
         <v>47</v>
       </c>
@@ -707,6 +740,12 @@
       <c r="A3" t="s">
         <v>34</v>
       </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
       <c r="D3" t="s">
         <v>48</v>
       </c>
@@ -715,6 +754,12 @@
       <c r="A4" t="s">
         <v>16</v>
       </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
@@ -723,6 +768,12 @@
       <c r="A5" t="s">
         <v>17</v>
       </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
       <c r="D5" t="s">
         <v>19</v>
       </c>
@@ -731,6 +782,12 @@
       <c r="A6" t="s">
         <v>41</v>
       </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
       <c r="D6" t="s">
         <v>45</v>
       </c>
@@ -739,6 +796,12 @@
       <c r="A7" t="s">
         <v>42</v>
       </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
       <c r="D7" t="s">
         <v>46</v>
       </c>
@@ -747,6 +810,12 @@
       <c r="A8" t="s">
         <v>43</v>
       </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
       <c r="D8" t="s">
         <v>49</v>
       </c>
@@ -754,6 +823,12 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
       </c>
       <c r="D9" t="s">
         <v>50</v>

--- a/.templates/Data/Configs/PerformerConfig.xlsx
+++ b/.templates/Data/Configs/PerformerConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eyash\Documents\UiPath\LazyFramework\.templates\Data\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBDAEE2-1EF6-4F7B-B392-A2D44F441BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B63CF26-92E9-423E-B67E-8DE1F62E3DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20120" yWindow="0" windowWidth="18280" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27360" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
   <si>
     <t>Name</t>
   </si>
@@ -210,9 +210,6 @@
     <t>.templates\Data\Exception Screenshots</t>
   </si>
   <si>
-    <t>LazyFramework.Tests</t>
-  </si>
-  <si>
     <t>LazyFramework</t>
   </si>
   <si>
@@ -223,6 +220,33 @@
   </si>
   <si>
     <t>SysEx_CC</t>
+  </si>
+  <si>
+    <t>IMAP_Port</t>
+  </si>
+  <si>
+    <t>The port of the IMAP server.</t>
+  </si>
+  <si>
+    <t>IMAP_Server</t>
+  </si>
+  <si>
+    <t>The URL of the IMAP server.</t>
+  </si>
+  <si>
+    <t>Maintenance_Start</t>
+  </si>
+  <si>
+    <t>Maintenance_End</t>
+  </si>
+  <si>
+    <t>00:00:00</t>
+  </si>
+  <si>
+    <t>The end of a maintenance window.</t>
+  </si>
+  <si>
+    <t>The start of a maintenance window.</t>
   </si>
 </sst>
 </file>
@@ -258,8 +282,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,7 +616,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -602,7 +627,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -613,7 +638,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -638,8 +663,31 @@
         <v>24</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -697,10 +745,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59017D05-C146-4F94-B0C7-FE1042A65B41}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,10 +775,10 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
         <v>47</v>
@@ -741,10 +789,10 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
         <v>48</v>
@@ -758,7 +806,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -772,7 +820,7 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -783,10 +831,10 @@
         <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
         <v>45</v>
@@ -797,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
         <v>46</v>
@@ -811,10 +859,10 @@
         <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
         <v>49</v>
@@ -825,13 +873,41 @@
         <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
